--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>5.021907707863549</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>3.444555482474443</v>
+        <v>19.19812743658083</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-2.795366972602376</v>
+        <v>-5.592633745595466</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-2.107498023488275</v>
+        <v>-9.964084247724703</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>-0.08895626662497325</v>
+        <v>-5.440152375872254</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>-1.917110159754765</v>
+        <v>-14.43639438706738</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>3.46465162656866</v>
+        <v>9.349082908138451</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>0.3916555001892696</v>
+        <v>27.15801420548429</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>0.3632935209776811</v>
+        <v>0.5389546843750148</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>2.235144361296437</v>
+        <v>-5.27893918837793</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>4.969095698764936</v>
+        <v>-4.232836797447693</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>2.140109163629722</v>
+        <v>-8.0930759205322</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>5.961021989009962</v>
+        <v>7.942828065321739</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>2.757812450733121</v>
+        <v>15.37760125310905</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>0.4564303275705672</v>
+        <v>1.913895196850168</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>3.007219331001743</v>
+        <v>6.97490799213798</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.118783878065944</v>
+        <v>4.861901970953975</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>2.65135034788011</v>
+        <v>9.631040506010535</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.90221275570699</v>
+        <v>4.115488239647713</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>2.98496562536319</v>
+        <v>9.523050046161053</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>3.833579063543668</v>
+        <v>4.07381142256642</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>3.952627688440802</v>
+        <v>8.54956688663686</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>3.585072989560922</v>
+        <v>5.264109583376908</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>3.280240870646334</v>
+        <v>7.819356632099961</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>2.930612967629065</v>
+        <v>6.942957493752444</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>3.940846718276259</v>
+        <v>17.43645097609996</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-4.462312592191775</v>
+        <v>2.932994663878907</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>1.653531771234085</v>
+        <v>2.894715150804616</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>0.9316226168292641</v>
+        <v>-0.7538332529782865</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>-5.354680295250647</v>
+        <v>-4.784481399264983</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-1.297339083829474</v>
+        <v>-2.598185084325777</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-3.841638226671518</v>
+        <v>-3.071148328823314</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-3.612361131107455</v>
+        <v>-1.287508943286542</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-4.879850927075092</v>
+        <v>-4.200823682253607</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-1.71630497783678</v>
+        <v>0.1893861904177951</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.07508327003469262</v>
+        <v>0.1126281723122791</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.932994663878907</v>
+        <v>3.285232806602445</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.894715150804616</v>
+        <v>4.648946574958646</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-0.7538332529782865</v>
+        <v>4.03207823671119</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>-4.784481399264983</v>
+        <v>19.81459356491751</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-2.598185084325777</v>
+        <v>1.166938248772098</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-3.071148328823314</v>
+        <v>16.68718678695835</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-1.287508943286542</v>
+        <v>1.758584501904159</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-4.200823682253607</v>
+        <v>11.30020092100839</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.1893861904177951</v>
+        <v>0.5908161348962215</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.1126281723122791</v>
+        <v>2.127099006366806</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,14 +422,11 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>5.021907707863549</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>19.19812743658083</v>
+        <v>19.1981274365808</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,7 +443,7 @@
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-9.964084247724703</v>
+        <v>-9.964084247724713</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +454,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>-5.440152375872254</v>
+        <v>-5.440152375872276</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>-14.43639438706738</v>
+        <v>-14.43639438706736</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +471,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>9.349082908138451</v>
+        <v>9.349082908138474</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>27.15801420548429</v>
+        <v>27.15801420548431</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +488,7 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>0.5389546843750148</v>
+        <v>0.5389546843749926</v>
       </c>
       <c r="D6">
         <v>2013</v>
@@ -508,13 +505,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-4.232836797447693</v>
+        <v>-4.232836797447703</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>-8.0930759205322</v>
+        <v>-8.093075920532211</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,7 +528,7 @@
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>15.37760125310905</v>
+        <v>15.37760125310901</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,13 +539,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.913895196850168</v>
+        <v>1.913895196850146</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>6.97490799213798</v>
+        <v>6.974907992137958</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,7 +556,7 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>4.861901970953975</v>
+        <v>4.861901970954019</v>
       </c>
       <c r="D10">
         <v>2017</v>
@@ -576,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>4.115488239647713</v>
+        <v>4.115488239647735</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>9.523050046161053</v>
+        <v>9.52305004616103</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,13 +590,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>4.07381142256642</v>
+        <v>4.073811422566442</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>8.54956688663686</v>
+        <v>8.549566886636839</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -616,7 +613,7 @@
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>7.819356632099961</v>
+        <v>7.819356632099983</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -644,13 +641,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>3.285232806602445</v>
+        <v>3.285232806602423</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>4.648946574958646</v>
+        <v>4.648946574958668</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -678,13 +675,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>1.166938248772098</v>
+        <v>1.16693824877212</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>16.68718678695835</v>
+        <v>16.68718678695833</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,7 +692,7 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>1.758584501904159</v>
+        <v>1.758584501904181</v>
       </c>
       <c r="D18">
         <v>2025</v>
@@ -712,7 +709,7 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.5908161348962215</v>
+        <v>0.5908161348962437</v>
       </c>
       <c r="D19">
         <v>2026</v>
